--- a/KohonenNeuroNet.Resources/TrainingData.xlsx
+++ b/KohonenNeuroNet.Resources/TrainingData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\KohonenNeuroNet\KohonenNeuroNet.Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\KohonenNeuroNet\KohonenNeuroNet.Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -459,9 +459,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -476,6 +473,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -761,10 +761,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L185"/>
+  <dimension ref="A1:L134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -785,3800 +785,3800 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>7810866</v>
       </c>
-      <c r="C2" s="11">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
         <v>1056310</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>207870</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>120868</v>
       </c>
-      <c r="H2" s="11">
-        <v>0</v>
-      </c>
-      <c r="I2" s="11">
+      <c r="H2" s="10">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10">
         <v>92492</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="10">
         <v>1050489</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="10">
         <v>10270719</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="10">
         <v>86066131</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>13892000</v>
       </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
         <v>376469</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>1117589</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>1114281</v>
       </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11">
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
         <v>306925</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>692696</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>16386350</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="10">
         <v>59926579</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>10003513</v>
       </c>
-      <c r="C4" s="11">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
         <v>142058</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>708323</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>708208</v>
       </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11">
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
         <v>239</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="10">
         <v>21124</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>10869403</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <v>57196892</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>2419935</v>
       </c>
-      <c r="C5" s="11">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
         <v>2683602</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>1286521</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>908643</v>
       </c>
-      <c r="G5" s="11">
-        <v>0</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
         <v>33772</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>-2019070</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>5312935</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <v>54048003</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>5280000</v>
       </c>
-      <c r="C6" s="11">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
         <v>843380</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>8475</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>6376</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>251</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <v>18642</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>-1243558</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>4901543</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>46347845</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>1270000</v>
       </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
         <v>1001011</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>2002096</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>1622905</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>1622116</v>
       </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11">
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
         <v>5798</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>126761</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>6027855</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <v>43656898</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>5298715</v>
       </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
         <v>1327441</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>1702172</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>1689840</v>
       </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11">
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
         <v>10303</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="10">
         <v>-2750815</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <v>5609573</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <v>30437197</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>2868191</v>
       </c>
-      <c r="C9" s="11">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="C9" s="10">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10">
         <v>2754</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>429310</v>
       </c>
-      <c r="F9" s="11">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11">
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
         <v>-435343</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>2839925</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <v>29395221</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>2928784</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>-1312</v>
       </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
         <v>181277</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>138909</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>138519</v>
       </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11">
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
         <v>92</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="10">
         <v>456</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <v>3248102</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="10">
         <v>28780058</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>2976565</v>
       </c>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
         <v>6</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>228869</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>131067</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>131067</v>
       </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11">
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
         <v>-348405</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <v>2877993</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="10">
         <v>28693564</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>390363</v>
       </c>
-      <c r="C12" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11">
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
         <v>638910</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>667046</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>142150</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>142150</v>
       </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11">
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
         <v>-1363775</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <v>474694</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <v>24845773</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>2000000</v>
       </c>
-      <c r="C13" s="11">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0</v>
-      </c>
-      <c r="E13" s="11">
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
         <v>387384</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>13726</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>12595</v>
       </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
         <v>75783</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="10">
         <v>-449978</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="10">
         <v>2026915</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="10">
         <v>19456787</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>2259581</v>
       </c>
-      <c r="C14" s="11">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
         <v>2107</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>38638</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>100422</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>100422</v>
       </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11">
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
         <v>127394</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="10">
         <v>-664557</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="10">
         <v>1866547</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="10">
         <v>19453192</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>2522842</v>
       </c>
-      <c r="C15" s="11">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11">
+      <c r="C15" s="10">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10">
         <v>98129</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>405039</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>401442</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <v>389124</v>
       </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
         <v>4704</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="10">
         <v>-800856</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="10">
         <v>2627650</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="10">
         <v>17399669</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>8409298</v>
       </c>
-      <c r="C16" s="11">
-        <v>0</v>
-      </c>
-      <c r="D16" s="11">
+      <c r="C16" s="10">
+        <v>0</v>
+      </c>
+      <c r="D16" s="10">
         <v>535524</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>573038</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>113474</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <v>113474</v>
       </c>
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="11">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11">
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
         <v>-4215998</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="10">
         <v>4336440</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="10">
         <v>16952208</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>1965600</v>
       </c>
-      <c r="C17" s="11">
-        <v>0</v>
-      </c>
-      <c r="D17" s="11">
-        <v>0</v>
-      </c>
-      <c r="E17" s="11">
+      <c r="C17" s="10">
+        <v>0</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
         <v>48529</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>270611</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="10">
         <v>270611</v>
       </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
         <v>7278</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="10">
         <v>17860</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="10">
         <v>2312689</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="10">
         <v>16162827</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>2159100</v>
       </c>
-      <c r="C18" s="11">
-        <v>0</v>
-      </c>
-      <c r="D18" s="11">
-        <v>0</v>
-      </c>
-      <c r="E18" s="11">
+      <c r="C18" s="10">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
         <v>301544</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>49479</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <v>49479</v>
       </c>
-      <c r="H18" s="11">
-        <v>0</v>
-      </c>
-      <c r="I18" s="11">
-        <v>0</v>
-      </c>
-      <c r="J18" s="11">
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0</v>
+      </c>
+      <c r="J18" s="10">
         <v>-4342240</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="10">
         <v>-1827303</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="10">
         <v>13852722</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>1350000</v>
       </c>
-      <c r="C19" s="11">
-        <v>0</v>
-      </c>
-      <c r="D19" s="11">
+      <c r="C19" s="10">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
         <v>1061</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>180445</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>86543</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <v>86543</v>
       </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
+      <c r="H19" s="10">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
         <v>-3816</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="10">
         <v>-307430</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="10">
         <v>1222463</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="10">
         <v>13578404</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>3800000</v>
       </c>
-      <c r="C20" s="11">
-        <v>0</v>
-      </c>
-      <c r="D20" s="11">
+      <c r="C20" s="10">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10">
         <v>135942</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>375585</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>198581</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <v>198338</v>
       </c>
-      <c r="H20" s="11">
-        <v>0</v>
-      </c>
-      <c r="I20" s="11">
+      <c r="H20" s="10">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10">
         <v>1794</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="10">
         <v>-4415600</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="10">
         <v>95425</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="10">
         <v>12090432</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>866377</v>
       </c>
-      <c r="C21" s="11">
-        <v>0</v>
-      </c>
-      <c r="D21" s="11">
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10">
         <v>335564</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>111606</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>95749</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <v>95749</v>
       </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10">
         <v>61042</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="10">
         <v>1457052</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="10">
         <v>10702966</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>731298</v>
       </c>
-      <c r="C22" s="11">
-        <v>0</v>
-      </c>
-      <c r="D22" s="11">
-        <v>0</v>
-      </c>
-      <c r="E22" s="11">
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
         <v>336529</v>
       </c>
-      <c r="F22" s="11">
-        <v>0</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0</v>
-      </c>
-      <c r="H22" s="11">
-        <v>0</v>
-      </c>
-      <c r="I22" s="11">
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10">
         <v>187800</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="10">
         <v>144246</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="10">
         <v>1400042</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="10">
         <v>9699979</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>1037712</v>
       </c>
-      <c r="C23" s="11">
-        <v>0</v>
-      </c>
-      <c r="D23" s="11">
-        <v>0</v>
-      </c>
-      <c r="E23" s="11">
+      <c r="C23" s="10">
+        <v>0</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10">
         <v>27986</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <v>599</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="10">
         <v>599</v>
       </c>
-      <c r="H23" s="11">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11">
+      <c r="H23" s="10">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10">
         <v>759</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="10">
         <v>-230889</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="10">
         <v>835782</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="10">
         <v>9109235</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>653508</v>
       </c>
-      <c r="C24" s="11">
-        <v>0</v>
-      </c>
-      <c r="D24" s="11">
+      <c r="C24" s="10">
+        <v>0</v>
+      </c>
+      <c r="D24" s="10">
         <v>2018</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>149238</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <v>33</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <v>33</v>
       </c>
-      <c r="H24" s="11">
-        <v>0</v>
-      </c>
-      <c r="I24" s="11">
+      <c r="H24" s="10">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10">
         <v>21134</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="10">
         <v>2602</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="10">
         <v>828452</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="10">
         <v>8692946</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>1360500</v>
       </c>
-      <c r="C25" s="11">
-        <v>0</v>
-      </c>
-      <c r="D25" s="11">
-        <v>0</v>
-      </c>
-      <c r="E25" s="11">
+      <c r="C25" s="10">
+        <v>0</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10">
         <v>3529</v>
       </c>
-      <c r="F25" s="11">
-        <v>0</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11">
-        <v>0</v>
-      </c>
-      <c r="J25" s="11">
+      <c r="F25" s="10">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10">
+        <v>0</v>
+      </c>
+      <c r="J25" s="10">
         <v>-345726</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="10">
         <v>1017874</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="10">
         <v>8487134</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>510000</v>
       </c>
-      <c r="C26" s="11">
-        <v>0</v>
-      </c>
-      <c r="D26" s="11">
-        <v>0</v>
-      </c>
-      <c r="E26" s="11">
+      <c r="C26" s="10">
+        <v>0</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10">
         <v>75350</v>
       </c>
-      <c r="F26" s="11">
-        <v>0</v>
-      </c>
-      <c r="G26" s="11">
-        <v>0</v>
-      </c>
-      <c r="H26" s="11">
-        <v>0</v>
-      </c>
-      <c r="I26" s="11">
-        <v>0</v>
-      </c>
-      <c r="J26" s="11">
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0</v>
+      </c>
+      <c r="J26" s="10">
         <v>8016</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="10">
         <v>589502</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="10">
         <v>8464730</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>1561623</v>
       </c>
-      <c r="C27" s="11">
-        <v>0</v>
-      </c>
-      <c r="D27" s="11">
+      <c r="C27" s="10">
+        <v>0</v>
+      </c>
+      <c r="D27" s="10">
         <v>672</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <v>20761</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <v>249153</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="10">
         <v>247307</v>
       </c>
-      <c r="H27" s="11">
-        <v>0</v>
-      </c>
-      <c r="I27" s="11">
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10">
         <v>70571</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="10">
         <v>-710801</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="10">
         <v>1191980</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="10">
         <v>7541430</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>542638</v>
       </c>
-      <c r="C28" s="11">
-        <v>0</v>
-      </c>
-      <c r="D28" s="11">
+      <c r="C28" s="10">
+        <v>0</v>
+      </c>
+      <c r="D28" s="10">
         <v>430119</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>16129</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <v>60711</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <v>60711</v>
       </c>
-      <c r="H28" s="11">
-        <v>0</v>
-      </c>
-      <c r="I28" s="11">
+      <c r="H28" s="10">
+        <v>0</v>
+      </c>
+      <c r="I28" s="10">
         <v>6464</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="10">
         <v>-381738</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="10">
         <v>672190</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="10">
         <v>7258175</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>771650</v>
       </c>
-      <c r="C29" s="11">
-        <v>0</v>
-      </c>
-      <c r="D29" s="11">
+      <c r="C29" s="10">
+        <v>0</v>
+      </c>
+      <c r="D29" s="10">
         <v>3531</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <v>219345</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <v>86076</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="10">
         <v>86076</v>
       </c>
-      <c r="H29" s="11">
-        <v>0</v>
-      </c>
-      <c r="I29" s="11">
-        <v>0</v>
-      </c>
-      <c r="J29" s="11">
+      <c r="H29" s="10">
+        <v>0</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0</v>
+      </c>
+      <c r="J29" s="10">
         <v>-445384</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="10">
         <v>631924</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L29" s="10">
         <v>7098374</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>617760</v>
       </c>
-      <c r="C30" s="11">
-        <v>0</v>
-      </c>
-      <c r="D30" s="11">
-        <v>0</v>
-      </c>
-      <c r="E30" s="11">
+      <c r="C30" s="10">
+        <v>0</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0</v>
+      </c>
+      <c r="E30" s="10">
         <v>122528</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <v>17601</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="10">
         <v>17601</v>
       </c>
-      <c r="H30" s="11">
-        <v>0</v>
-      </c>
-      <c r="I30" s="11">
-        <v>0</v>
-      </c>
-      <c r="J30" s="11">
+      <c r="H30" s="10">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0</v>
+      </c>
+      <c r="J30" s="10">
         <v>-86174</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="10">
         <v>657317</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L30" s="10">
         <v>6426142</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>839929</v>
       </c>
-      <c r="C31" s="11">
-        <v>0</v>
-      </c>
-      <c r="D31" s="11">
-        <v>0</v>
-      </c>
-      <c r="E31" s="11">
+      <c r="C31" s="10">
+        <v>0</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10">
         <v>115147</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <v>94089</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="10">
         <v>94089</v>
       </c>
-      <c r="H31" s="11">
-        <v>0</v>
-      </c>
-      <c r="I31" s="11">
-        <v>0</v>
-      </c>
-      <c r="J31" s="11">
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10">
         <v>10105</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="10">
         <v>1061392</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="10">
         <v>6197749</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="10">
         <v>795000</v>
       </c>
-      <c r="C32" s="11">
-        <v>0</v>
-      </c>
-      <c r="D32" s="11">
-        <v>0</v>
-      </c>
-      <c r="E32" s="11">
+      <c r="C32" s="10">
+        <v>0</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10">
         <v>156862</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <v>3795</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="10">
         <v>3795</v>
       </c>
-      <c r="H32" s="11">
-        <v>0</v>
-      </c>
-      <c r="I32" s="11">
-        <v>0</v>
-      </c>
-      <c r="J32" s="11">
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10">
         <v>-115794</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="10">
         <v>839863</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L32" s="10">
         <v>5662680</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <v>550000</v>
       </c>
-      <c r="C33" s="11">
-        <v>0</v>
-      </c>
-      <c r="D33" s="11">
-        <v>0</v>
-      </c>
-      <c r="E33" s="11">
+      <c r="C33" s="10">
+        <v>0</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10">
         <v>31945</v>
       </c>
-      <c r="F33" s="11">
-        <v>0</v>
-      </c>
-      <c r="G33" s="11">
-        <v>0</v>
-      </c>
-      <c r="H33" s="11">
-        <v>0</v>
-      </c>
-      <c r="I33" s="11">
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10">
         <v>-32578</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="10">
         <v>-299623</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K33" s="10">
         <v>246545</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L33" s="10">
         <v>5636998</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <v>1550969</v>
       </c>
-      <c r="C34" s="11">
-        <v>0</v>
-      </c>
-      <c r="D34" s="11">
+      <c r="C34" s="10">
+        <v>0</v>
+      </c>
+      <c r="D34" s="10">
         <v>38</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <v>40176</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <v>155888</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="10">
         <v>155888</v>
       </c>
-      <c r="H34" s="11">
-        <v>0</v>
-      </c>
-      <c r="I34" s="11">
+      <c r="H34" s="10">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10">
         <v>-622146</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="10">
         <v>-528051</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="10">
         <v>591208</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L34" s="10">
         <v>5475154</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <v>1550000</v>
       </c>
-      <c r="C35" s="11">
-        <v>0</v>
-      </c>
-      <c r="D35" s="11">
-        <v>0</v>
-      </c>
-      <c r="E35" s="11">
+      <c r="C35" s="10">
+        <v>0</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10">
         <v>53758</v>
       </c>
-      <c r="F35" s="11">
-        <v>0</v>
-      </c>
-      <c r="G35" s="11">
-        <v>0</v>
-      </c>
-      <c r="H35" s="11">
-        <v>0</v>
-      </c>
-      <c r="I35" s="11">
-        <v>0</v>
-      </c>
-      <c r="J35" s="11">
+      <c r="F35" s="10">
+        <v>0</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0</v>
+      </c>
+      <c r="J35" s="10">
         <v>1494</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K35" s="10">
         <v>1605252</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L35" s="10">
         <v>5360582</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <v>330000</v>
       </c>
-      <c r="C36" s="11">
-        <v>0</v>
-      </c>
-      <c r="D36" s="11">
+      <c r="C36" s="10">
+        <v>0</v>
+      </c>
+      <c r="D36" s="10">
         <v>80212</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="10">
         <v>72330</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <v>27681</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="10">
         <v>27681</v>
       </c>
-      <c r="H36" s="11">
-        <v>0</v>
-      </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
+      <c r="H36" s="10">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0</v>
+      </c>
+      <c r="J36" s="10">
         <v>733</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="10">
         <v>511466</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L36" s="10">
         <v>5092578</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>315000</v>
       </c>
-      <c r="C37" s="11">
-        <v>0</v>
-      </c>
-      <c r="D37" s="11">
-        <v>0</v>
-      </c>
-      <c r="E37" s="11">
+      <c r="C37" s="10">
+        <v>0</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0</v>
+      </c>
+      <c r="E37" s="10">
         <v>166065</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <v>72335</v>
       </c>
-      <c r="G37" s="11">
-        <v>0</v>
-      </c>
-      <c r="H37" s="11">
-        <v>0</v>
-      </c>
-      <c r="I37" s="11">
-        <v>0</v>
-      </c>
-      <c r="J37" s="11">
+      <c r="G37" s="10">
+        <v>0</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0</v>
+      </c>
+      <c r="J37" s="10">
         <v>15730</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="10">
         <v>569292</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L37" s="10">
         <v>4833934</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>172929</v>
       </c>
-      <c r="C38" s="11">
-        <v>0</v>
-      </c>
-      <c r="D38" s="11">
-        <v>0</v>
-      </c>
-      <c r="E38" s="11">
+      <c r="C38" s="10">
+        <v>0</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10">
         <v>215838</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <v>50988</v>
       </c>
-      <c r="G38" s="11">
-        <v>0</v>
-      </c>
-      <c r="H38" s="11">
-        <v>0</v>
-      </c>
-      <c r="I38" s="11">
-        <v>0</v>
-      </c>
-      <c r="J38" s="11">
+      <c r="G38" s="10">
+        <v>0</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0</v>
+      </c>
+      <c r="J38" s="10">
         <v>258658</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="10">
         <v>698413</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38" s="10">
         <v>4502533</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <v>66500</v>
       </c>
-      <c r="C39" s="11">
-        <v>0</v>
-      </c>
-      <c r="D39" s="11">
+      <c r="C39" s="10">
+        <v>0</v>
+      </c>
+      <c r="D39" s="10">
         <v>253091</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="10">
         <v>37032</v>
       </c>
-      <c r="F39" s="11">
-        <v>0</v>
-      </c>
-      <c r="G39" s="11">
-        <v>0</v>
-      </c>
-      <c r="H39" s="11">
-        <v>0</v>
-      </c>
-      <c r="I39" s="11">
-        <v>0</v>
-      </c>
-      <c r="J39" s="11">
+      <c r="F39" s="10">
+        <v>0</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0</v>
+      </c>
+      <c r="J39" s="10">
         <v>451452</v>
       </c>
-      <c r="K39" s="11">
+      <c r="K39" s="10">
         <v>814274</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L39" s="10">
         <v>4168098</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <v>276080</v>
       </c>
-      <c r="C40" s="11">
-        <v>0</v>
-      </c>
-      <c r="D40" s="11">
-        <v>0</v>
-      </c>
-      <c r="E40" s="11">
+      <c r="C40" s="10">
+        <v>0</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0</v>
+      </c>
+      <c r="E40" s="10">
         <v>20868</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <v>73055</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="10">
         <v>73055</v>
       </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-      <c r="I40" s="11">
+      <c r="H40" s="10">
+        <v>0</v>
+      </c>
+      <c r="I40" s="10">
         <v>249</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J40" s="10">
         <v>-81417</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K40" s="10">
         <v>288834</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L40" s="10">
         <v>3743459</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <v>3567544</v>
       </c>
-      <c r="C41" s="11">
-        <v>0</v>
-      </c>
-      <c r="D41" s="11">
+      <c r="C41" s="10">
+        <v>0</v>
+      </c>
+      <c r="D41" s="10">
         <v>847</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="10">
         <v>349572</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="10">
         <v>237276</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="10">
         <v>237276</v>
       </c>
-      <c r="H41" s="11">
-        <v>0</v>
-      </c>
-      <c r="I41" s="11">
+      <c r="H41" s="10">
+        <v>0</v>
+      </c>
+      <c r="I41" s="10">
         <v>16872</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J41" s="10">
         <v>-2987940</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K41" s="10">
         <v>1184170</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L41" s="10">
         <v>3473056</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>407798</v>
       </c>
-      <c r="C42" s="11">
-        <v>0</v>
-      </c>
-      <c r="D42" s="11">
+      <c r="C42" s="10">
+        <v>0</v>
+      </c>
+      <c r="D42" s="10">
         <v>8022</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="10">
         <v>136109</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <v>10157</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="10">
         <v>3605</v>
       </c>
-      <c r="H42" s="11">
-        <v>0</v>
-      </c>
-      <c r="I42" s="11">
+      <c r="H42" s="10">
+        <v>0</v>
+      </c>
+      <c r="I42" s="10">
         <v>1385</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J42" s="10">
         <v>4065</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K42" s="10">
         <v>555425</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L42" s="10">
         <v>3452369</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <v>365689</v>
       </c>
-      <c r="C43" s="11">
-        <v>0</v>
-      </c>
-      <c r="D43" s="11">
+      <c r="C43" s="10">
+        <v>0</v>
+      </c>
+      <c r="D43" s="10">
         <v>2</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="10">
         <v>71520</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="10">
         <v>213000</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="10">
         <v>213000</v>
       </c>
-      <c r="H43" s="11">
-        <v>0</v>
-      </c>
-      <c r="I43" s="11">
+      <c r="H43" s="10">
+        <v>0</v>
+      </c>
+      <c r="I43" s="10">
         <v>1027</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J43" s="10">
         <v>-224832</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K43" s="10">
         <v>422116</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L43" s="10">
         <v>3384177</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="10">
         <v>1500000</v>
       </c>
-      <c r="C44" s="11">
-        <v>0</v>
-      </c>
-      <c r="D44" s="11">
+      <c r="C44" s="10">
+        <v>0</v>
+      </c>
+      <c r="D44" s="10">
         <v>3</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="10">
         <v>18665</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="10">
         <v>12787</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="10">
         <v>12787</v>
       </c>
-      <c r="H44" s="11">
-        <v>0</v>
-      </c>
-      <c r="I44" s="11">
+      <c r="H44" s="10">
+        <v>0</v>
+      </c>
+      <c r="I44" s="10">
         <v>579</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J44" s="10">
         <v>3149</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K44" s="10">
         <v>1535416</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L44" s="10">
         <v>3202133</v>
       </c>
     </row>
     <row r="45" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="10">
         <v>510000</v>
       </c>
-      <c r="C45" s="11">
-        <v>0</v>
-      </c>
-      <c r="D45" s="11">
-        <v>0</v>
-      </c>
-      <c r="E45" s="11">
+      <c r="C45" s="10">
+        <v>0</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0</v>
+      </c>
+      <c r="E45" s="10">
         <v>41245</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="10">
         <v>27763</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="10">
         <v>27763</v>
       </c>
-      <c r="H45" s="11">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11">
-        <v>0</v>
-      </c>
-      <c r="J45" s="11">
+      <c r="H45" s="10">
+        <v>0</v>
+      </c>
+      <c r="I45" s="10">
+        <v>0</v>
+      </c>
+      <c r="J45" s="10">
         <v>-285462</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K45" s="10">
         <v>293177</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L45" s="10">
         <v>3180404</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="10">
         <v>500000</v>
       </c>
-      <c r="C46" s="11">
-        <v>0</v>
-      </c>
-      <c r="D46" s="11">
+      <c r="C46" s="10">
+        <v>0</v>
+      </c>
+      <c r="D46" s="10">
         <v>138</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="10">
         <v>100164</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="10">
         <v>36086</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="10">
         <v>36086</v>
       </c>
-      <c r="H46" s="11">
-        <v>0</v>
-      </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11">
+      <c r="H46" s="10">
+        <v>0</v>
+      </c>
+      <c r="I46" s="10">
+        <v>0</v>
+      </c>
+      <c r="J46" s="10">
         <v>1581</v>
       </c>
-      <c r="K46" s="11">
+      <c r="K46" s="10">
         <v>634026</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L46" s="10">
         <v>3172008</v>
       </c>
     </row>
     <row r="47" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="10">
         <v>340658</v>
       </c>
-      <c r="C47" s="11">
-        <v>0</v>
-      </c>
-      <c r="D47" s="11">
-        <v>0</v>
-      </c>
-      <c r="E47" s="11">
+      <c r="C47" s="10">
+        <v>0</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0</v>
+      </c>
+      <c r="E47" s="10">
         <v>5383</v>
       </c>
-      <c r="F47" s="11">
-        <v>0</v>
-      </c>
-      <c r="G47" s="11">
-        <v>0</v>
-      </c>
-      <c r="H47" s="11">
-        <v>0</v>
-      </c>
-      <c r="I47" s="11">
+      <c r="F47" s="10">
+        <v>0</v>
+      </c>
+      <c r="G47" s="10">
+        <v>0</v>
+      </c>
+      <c r="H47" s="10">
+        <v>0</v>
+      </c>
+      <c r="I47" s="10">
         <v>10467</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J47" s="10">
         <v>-112749</v>
       </c>
-      <c r="K47" s="11">
+      <c r="K47" s="10">
         <v>243759</v>
       </c>
-      <c r="L47" s="11">
+      <c r="L47" s="10">
         <v>2925776</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="10">
         <v>260000</v>
       </c>
-      <c r="C48" s="11">
-        <v>0</v>
-      </c>
-      <c r="D48" s="11">
+      <c r="C48" s="10">
+        <v>0</v>
+      </c>
+      <c r="D48" s="10">
         <v>864</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="10">
         <v>28757</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="10">
         <v>40588</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="10">
         <v>40521</v>
       </c>
-      <c r="H48" s="11">
-        <v>0</v>
-      </c>
-      <c r="I48" s="11">
+      <c r="H48" s="10">
+        <v>0</v>
+      </c>
+      <c r="I48" s="10">
         <v>582</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J48" s="10">
         <v>-111456</v>
       </c>
-      <c r="K48" s="11">
+      <c r="K48" s="10">
         <v>219335</v>
       </c>
-      <c r="L48" s="11">
+      <c r="L48" s="10">
         <v>2912381</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="10">
         <v>227000</v>
       </c>
-      <c r="C49" s="11">
-        <v>0</v>
-      </c>
-      <c r="D49" s="11">
+      <c r="C49" s="10">
+        <v>0</v>
+      </c>
+      <c r="D49" s="10">
         <v>778</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="10">
         <v>61600</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="10">
         <v>44913</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="10">
         <v>44913</v>
       </c>
-      <c r="H49" s="11">
-        <v>0</v>
-      </c>
-      <c r="I49" s="11">
+      <c r="H49" s="10">
+        <v>0</v>
+      </c>
+      <c r="I49" s="10">
         <v>2367</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J49" s="10">
         <v>-65335</v>
       </c>
-      <c r="K49" s="11">
+      <c r="K49" s="10">
         <v>271324</v>
       </c>
-      <c r="L49" s="11">
+      <c r="L49" s="10">
         <v>2841579</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="10">
         <v>439693</v>
       </c>
-      <c r="C50" s="11">
-        <v>0</v>
-      </c>
-      <c r="D50" s="11">
-        <v>0</v>
-      </c>
-      <c r="E50" s="11">
+      <c r="C50" s="10">
+        <v>0</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+      <c r="E50" s="10">
         <v>50709</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="10">
         <v>37527</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="10">
         <v>37527</v>
       </c>
-      <c r="H50" s="11">
-        <v>0</v>
-      </c>
-      <c r="I50" s="11">
-        <v>0</v>
-      </c>
-      <c r="J50" s="11">
+      <c r="H50" s="10">
+        <v>0</v>
+      </c>
+      <c r="I50" s="10">
+        <v>0</v>
+      </c>
+      <c r="J50" s="10">
         <v>-28406</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K50" s="10">
         <v>499522</v>
       </c>
-      <c r="L50" s="11">
+      <c r="L50" s="10">
         <v>2694174</v>
       </c>
     </row>
     <row r="51" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="10">
         <v>248768</v>
       </c>
-      <c r="C51" s="11">
-        <v>0</v>
-      </c>
-      <c r="D51" s="11">
-        <v>0</v>
-      </c>
-      <c r="E51" s="11">
+      <c r="C51" s="10">
+        <v>0</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+      <c r="E51" s="10">
         <v>78709</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="10">
         <v>40443</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51" s="10">
         <v>40435</v>
       </c>
-      <c r="H51" s="11">
-        <v>0</v>
-      </c>
-      <c r="I51" s="11">
+      <c r="H51" s="10">
+        <v>0</v>
+      </c>
+      <c r="I51" s="10">
         <v>6109</v>
       </c>
-      <c r="J51" s="11">
+      <c r="J51" s="10">
         <v>10244</v>
       </c>
-      <c r="K51" s="11">
+      <c r="K51" s="10">
         <v>384272</v>
       </c>
-      <c r="L51" s="11">
+      <c r="L51" s="10">
         <v>2689403</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="10">
         <v>180000</v>
       </c>
-      <c r="C52" s="11">
-        <v>0</v>
-      </c>
-      <c r="D52" s="11">
-        <v>0</v>
-      </c>
-      <c r="E52" s="11">
+      <c r="C52" s="10">
+        <v>0</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0</v>
+      </c>
+      <c r="E52" s="10">
         <v>62761</v>
       </c>
-      <c r="F52" s="11">
-        <v>0</v>
-      </c>
-      <c r="G52" s="11">
-        <v>0</v>
-      </c>
-      <c r="H52" s="11">
-        <v>0</v>
-      </c>
-      <c r="I52" s="11">
-        <v>0</v>
-      </c>
-      <c r="J52" s="11">
+      <c r="F52" s="10">
+        <v>0</v>
+      </c>
+      <c r="G52" s="10">
+        <v>0</v>
+      </c>
+      <c r="H52" s="10">
+        <v>0</v>
+      </c>
+      <c r="I52" s="10">
+        <v>0</v>
+      </c>
+      <c r="J52" s="10">
         <v>2195</v>
       </c>
-      <c r="K52" s="11">
+      <c r="K52" s="10">
         <v>244950</v>
       </c>
-      <c r="L52" s="11">
+      <c r="L52" s="10">
         <v>2250601</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="10">
         <v>380000</v>
       </c>
-      <c r="C53" s="11">
-        <v>0</v>
-      </c>
-      <c r="D53" s="11">
+      <c r="C53" s="10">
+        <v>0</v>
+      </c>
+      <c r="D53" s="10">
         <v>9540</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E53" s="10">
         <v>32644</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F53" s="10">
         <v>8</v>
       </c>
-      <c r="G53" s="11">
-        <v>0</v>
-      </c>
-      <c r="H53" s="11">
-        <v>0</v>
-      </c>
-      <c r="I53" s="11">
+      <c r="G53" s="10">
+        <v>0</v>
+      </c>
+      <c r="H53" s="10">
+        <v>0</v>
+      </c>
+      <c r="I53" s="10">
         <v>20987</v>
       </c>
-      <c r="J53" s="11">
+      <c r="J53" s="10">
         <v>17247</v>
       </c>
-      <c r="K53" s="11">
+      <c r="K53" s="10">
         <v>460426</v>
       </c>
-      <c r="L53" s="11">
+      <c r="L53" s="10">
         <v>2208270</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="10">
         <v>200229</v>
       </c>
-      <c r="C54" s="11">
-        <v>0</v>
-      </c>
-      <c r="D54" s="11">
-        <v>0</v>
-      </c>
-      <c r="E54" s="11">
+      <c r="C54" s="10">
+        <v>0</v>
+      </c>
+      <c r="D54" s="10">
+        <v>0</v>
+      </c>
+      <c r="E54" s="10">
         <v>9185</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="10">
         <v>75192</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G54" s="10">
         <v>75131</v>
       </c>
-      <c r="H54" s="11">
-        <v>0</v>
-      </c>
-      <c r="I54" s="11">
+      <c r="H54" s="10">
+        <v>0</v>
+      </c>
+      <c r="I54" s="10">
         <v>82</v>
       </c>
-      <c r="J54" s="11">
+      <c r="J54" s="10">
         <v>-17211</v>
       </c>
-      <c r="K54" s="11">
+      <c r="K54" s="10">
         <v>267506</v>
       </c>
-      <c r="L54" s="11">
+      <c r="L54" s="10">
         <v>2093177</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="10">
         <v>312750</v>
       </c>
-      <c r="C55" s="11">
-        <v>0</v>
-      </c>
-      <c r="D55" s="11">
-        <v>0</v>
-      </c>
-      <c r="E55" s="11">
+      <c r="C55" s="10">
+        <v>0</v>
+      </c>
+      <c r="D55" s="10">
+        <v>0</v>
+      </c>
+      <c r="E55" s="10">
         <v>79817</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="10">
         <v>125338</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G55" s="10">
         <v>125338</v>
       </c>
-      <c r="H55" s="11">
-        <v>0</v>
-      </c>
-      <c r="I55" s="11">
-        <v>0</v>
-      </c>
-      <c r="J55" s="11">
+      <c r="H55" s="10">
+        <v>0</v>
+      </c>
+      <c r="I55" s="10">
+        <v>0</v>
+      </c>
+      <c r="J55" s="10">
         <v>142</v>
       </c>
-      <c r="K55" s="11">
+      <c r="K55" s="10">
         <v>518319</v>
       </c>
-      <c r="L55" s="11">
+      <c r="L55" s="10">
         <v>2074160</v>
       </c>
     </row>
     <row r="56" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B56" s="11">
+      <c r="B56" s="10">
         <v>75000</v>
       </c>
-      <c r="C56" s="11">
-        <v>0</v>
-      </c>
-      <c r="D56" s="11">
-        <v>0</v>
-      </c>
-      <c r="E56" s="11">
+      <c r="C56" s="10">
+        <v>0</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0</v>
+      </c>
+      <c r="E56" s="10">
         <v>34412</v>
       </c>
-      <c r="F56" s="11">
-        <v>0</v>
-      </c>
-      <c r="G56" s="11">
-        <v>0</v>
-      </c>
-      <c r="H56" s="11">
-        <v>0</v>
-      </c>
-      <c r="I56" s="11">
-        <v>0</v>
-      </c>
-      <c r="J56" s="11">
+      <c r="F56" s="10">
+        <v>0</v>
+      </c>
+      <c r="G56" s="10">
+        <v>0</v>
+      </c>
+      <c r="H56" s="10">
+        <v>0</v>
+      </c>
+      <c r="I56" s="10">
+        <v>0</v>
+      </c>
+      <c r="J56" s="10">
         <v>1451</v>
       </c>
-      <c r="K56" s="11">
+      <c r="K56" s="10">
         <v>107904</v>
       </c>
-      <c r="L56" s="11">
+      <c r="L56" s="10">
         <v>1774852</v>
       </c>
     </row>
     <row r="57" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57" s="10">
         <v>505000</v>
       </c>
-      <c r="C57" s="11">
-        <v>0</v>
-      </c>
-      <c r="D57" s="11">
-        <v>0</v>
-      </c>
-      <c r="E57" s="11">
-        <v>0</v>
-      </c>
-      <c r="F57" s="11">
-        <v>0</v>
-      </c>
-      <c r="G57" s="11">
-        <v>0</v>
-      </c>
-      <c r="H57" s="11">
-        <v>0</v>
-      </c>
-      <c r="I57" s="11">
+      <c r="C57" s="10">
+        <v>0</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0</v>
+      </c>
+      <c r="E57" s="10">
+        <v>0</v>
+      </c>
+      <c r="F57" s="10">
+        <v>0</v>
+      </c>
+      <c r="G57" s="10">
+        <v>0</v>
+      </c>
+      <c r="H57" s="10">
+        <v>0</v>
+      </c>
+      <c r="I57" s="10">
         <v>10320</v>
       </c>
-      <c r="J57" s="11">
+      <c r="J57" s="10">
         <v>-13915</v>
       </c>
-      <c r="K57" s="11">
+      <c r="K57" s="10">
         <v>498110</v>
       </c>
-      <c r="L57" s="11">
+      <c r="L57" s="10">
         <v>1679723</v>
       </c>
     </row>
     <row r="58" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58" s="10">
         <v>204423</v>
       </c>
-      <c r="C58" s="11">
-        <v>0</v>
-      </c>
-      <c r="D58" s="11">
+      <c r="C58" s="10">
+        <v>0</v>
+      </c>
+      <c r="D58" s="10">
         <v>12</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="10">
         <v>29335</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="10">
         <v>198441</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G58" s="10">
         <v>198441</v>
       </c>
-      <c r="H58" s="11">
-        <v>0</v>
-      </c>
-      <c r="I58" s="11">
+      <c r="H58" s="10">
+        <v>0</v>
+      </c>
+      <c r="I58" s="10">
         <v>-408</v>
       </c>
-      <c r="J58" s="11">
+      <c r="J58" s="10">
         <v>-43566</v>
       </c>
-      <c r="K58" s="11">
+      <c r="K58" s="10">
         <v>388237</v>
       </c>
-      <c r="L58" s="11">
+      <c r="L58" s="10">
         <v>1598646</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="10">
         <v>210000</v>
       </c>
-      <c r="C59" s="11">
-        <v>0</v>
-      </c>
-      <c r="D59" s="11">
-        <v>0</v>
-      </c>
-      <c r="E59" s="11">
+      <c r="C59" s="10">
+        <v>0</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0</v>
+      </c>
+      <c r="E59" s="10">
         <v>52097</v>
       </c>
-      <c r="F59" s="11">
-        <v>0</v>
-      </c>
-      <c r="G59" s="11">
-        <v>0</v>
-      </c>
-      <c r="H59" s="11">
-        <v>0</v>
-      </c>
-      <c r="I59" s="11">
-        <v>0</v>
-      </c>
-      <c r="J59" s="11">
+      <c r="F59" s="10">
+        <v>0</v>
+      </c>
+      <c r="G59" s="10">
+        <v>0</v>
+      </c>
+      <c r="H59" s="10">
+        <v>0</v>
+      </c>
+      <c r="I59" s="10">
+        <v>0</v>
+      </c>
+      <c r="J59" s="10">
         <v>2309</v>
       </c>
-      <c r="K59" s="11">
+      <c r="K59" s="10">
         <v>264406</v>
       </c>
-      <c r="L59" s="11">
+      <c r="L59" s="10">
         <v>1514815</v>
       </c>
     </row>
     <row r="60" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="10">
         <v>115000</v>
       </c>
-      <c r="C60" s="11">
-        <v>0</v>
-      </c>
-      <c r="D60" s="11">
-        <v>0</v>
-      </c>
-      <c r="E60" s="11">
+      <c r="C60" s="10">
+        <v>0</v>
+      </c>
+      <c r="D60" s="10">
+        <v>0</v>
+      </c>
+      <c r="E60" s="10">
         <v>4684</v>
       </c>
-      <c r="F60" s="11">
-        <v>0</v>
-      </c>
-      <c r="G60" s="11">
-        <v>0</v>
-      </c>
-      <c r="H60" s="11">
-        <v>0</v>
-      </c>
-      <c r="I60" s="11">
-        <v>0</v>
-      </c>
-      <c r="J60" s="11">
+      <c r="F60" s="10">
+        <v>0</v>
+      </c>
+      <c r="G60" s="10">
+        <v>0</v>
+      </c>
+      <c r="H60" s="10">
+        <v>0</v>
+      </c>
+      <c r="I60" s="10">
+        <v>0</v>
+      </c>
+      <c r="J60" s="10">
         <v>625</v>
       </c>
-      <c r="K60" s="11">
+      <c r="K60" s="10">
         <v>120309</v>
       </c>
-      <c r="L60" s="11">
+      <c r="L60" s="10">
         <v>2185335</v>
       </c>
     </row>
     <row r="61" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="11">
+      <c r="B61" s="10">
         <v>156000</v>
       </c>
-      <c r="C61" s="11">
-        <v>0</v>
-      </c>
-      <c r="D61" s="11">
-        <v>0</v>
-      </c>
-      <c r="E61" s="11">
+      <c r="C61" s="10">
+        <v>0</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0</v>
+      </c>
+      <c r="E61" s="10">
         <v>417</v>
       </c>
-      <c r="F61" s="11">
-        <v>0</v>
-      </c>
-      <c r="G61" s="11">
-        <v>0</v>
-      </c>
-      <c r="H61" s="11">
-        <v>0</v>
-      </c>
-      <c r="I61" s="11">
-        <v>0</v>
-      </c>
-      <c r="J61" s="11">
+      <c r="F61" s="10">
+        <v>0</v>
+      </c>
+      <c r="G61" s="10">
+        <v>0</v>
+      </c>
+      <c r="H61" s="10">
+        <v>0</v>
+      </c>
+      <c r="I61" s="10">
+        <v>0</v>
+      </c>
+      <c r="J61" s="10">
         <v>806</v>
       </c>
-      <c r="K61" s="11">
+      <c r="K61" s="10">
         <v>157238</v>
       </c>
-      <c r="L61" s="11">
+      <c r="L61" s="10">
         <v>1726037</v>
       </c>
     </row>
     <row r="62" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B62" s="11">
+      <c r="B62" s="10">
         <v>192500</v>
       </c>
-      <c r="C62" s="11">
-        <v>0</v>
-      </c>
-      <c r="D62" s="11">
-        <v>0</v>
-      </c>
-      <c r="E62" s="11">
+      <c r="C62" s="10">
+        <v>0</v>
+      </c>
+      <c r="D62" s="10">
+        <v>0</v>
+      </c>
+      <c r="E62" s="10">
         <v>416</v>
       </c>
-      <c r="F62" s="11">
-        <v>0</v>
-      </c>
-      <c r="G62" s="11">
-        <v>0</v>
-      </c>
-      <c r="H62" s="11">
-        <v>0</v>
-      </c>
-      <c r="I62" s="11">
+      <c r="F62" s="10">
+        <v>0</v>
+      </c>
+      <c r="G62" s="10">
+        <v>0</v>
+      </c>
+      <c r="H62" s="10">
+        <v>0</v>
+      </c>
+      <c r="I62" s="10">
         <v>416</v>
       </c>
-      <c r="J62" s="11">
+      <c r="J62" s="10">
         <v>3776</v>
       </c>
-      <c r="K62" s="11">
+      <c r="K62" s="10">
         <v>197109</v>
       </c>
-      <c r="L62" s="11">
+      <c r="L62" s="10">
         <v>1548441</v>
       </c>
     </row>
     <row r="63" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63" s="10">
         <v>460564</v>
       </c>
-      <c r="C63" s="11">
-        <v>0</v>
-      </c>
-      <c r="D63" s="11">
-        <v>0</v>
-      </c>
-      <c r="E63" s="11">
+      <c r="C63" s="10">
+        <v>0</v>
+      </c>
+      <c r="D63" s="10">
+        <v>0</v>
+      </c>
+      <c r="E63" s="10">
         <v>2503</v>
       </c>
-      <c r="F63" s="11">
-        <v>0</v>
-      </c>
-      <c r="G63" s="11">
-        <v>0</v>
-      </c>
-      <c r="H63" s="11">
-        <v>0</v>
-      </c>
-      <c r="I63" s="11">
-        <v>0</v>
-      </c>
-      <c r="J63" s="11">
+      <c r="F63" s="10">
+        <v>0</v>
+      </c>
+      <c r="G63" s="10">
+        <v>0</v>
+      </c>
+      <c r="H63" s="10">
+        <v>0</v>
+      </c>
+      <c r="I63" s="10">
+        <v>0</v>
+      </c>
+      <c r="J63" s="10">
         <v>5143</v>
       </c>
-      <c r="K63" s="11">
+      <c r="K63" s="10">
         <v>468211</v>
       </c>
-      <c r="L63" s="11">
+      <c r="L63" s="10">
         <v>1539940</v>
       </c>
     </row>
     <row r="64" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="11">
+      <c r="B64" s="10">
         <v>134160</v>
       </c>
-      <c r="C64" s="11">
-        <v>0</v>
-      </c>
-      <c r="D64" s="11">
+      <c r="C64" s="10">
+        <v>0</v>
+      </c>
+      <c r="D64" s="10">
         <v>11436</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E64" s="10">
         <v>25986</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F64" s="10">
         <v>38040</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G64" s="10">
         <v>38040</v>
       </c>
-      <c r="H64" s="11">
-        <v>0</v>
-      </c>
-      <c r="I64" s="11">
+      <c r="H64" s="10">
+        <v>0</v>
+      </c>
+      <c r="I64" s="10">
         <v>805</v>
       </c>
-      <c r="J64" s="11">
+      <c r="J64" s="10">
         <v>2389</v>
       </c>
-      <c r="K64" s="11">
+      <c r="K64" s="10">
         <v>212816</v>
       </c>
-      <c r="L64" s="11">
+      <c r="L64" s="10">
         <v>1522627</v>
       </c>
     </row>
     <row r="65" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B65" s="11">
+      <c r="B65" s="10">
         <v>1050000</v>
       </c>
-      <c r="C65" s="11">
-        <v>0</v>
-      </c>
-      <c r="D65" s="11">
-        <v>0</v>
-      </c>
-      <c r="E65" s="11">
+      <c r="C65" s="10">
+        <v>0</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0</v>
+      </c>
+      <c r="E65" s="10">
         <v>674</v>
       </c>
-      <c r="F65" s="11">
-        <v>0</v>
-      </c>
-      <c r="G65" s="11">
-        <v>0</v>
-      </c>
-      <c r="H65" s="11">
-        <v>0</v>
-      </c>
-      <c r="I65" s="11">
+      <c r="F65" s="10">
+        <v>0</v>
+      </c>
+      <c r="G65" s="10">
+        <v>0</v>
+      </c>
+      <c r="H65" s="10">
+        <v>0</v>
+      </c>
+      <c r="I65" s="10">
         <v>674</v>
       </c>
-      <c r="J65" s="11">
+      <c r="J65" s="10">
         <v>3536</v>
       </c>
-      <c r="K65" s="11">
+      <c r="K65" s="10">
         <v>1054884</v>
       </c>
-      <c r="L65" s="11">
+      <c r="L65" s="10">
         <v>1505470</v>
       </c>
     </row>
     <row r="66" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="11">
+      <c r="B66" s="10">
         <v>541000</v>
       </c>
-      <c r="C66" s="11">
-        <v>0</v>
-      </c>
-      <c r="D66" s="11">
+      <c r="C66" s="10">
+        <v>0</v>
+      </c>
+      <c r="D66" s="10">
         <v>41</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E66" s="10">
         <v>50538</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="10">
         <v>12655</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G66" s="10">
         <v>12644</v>
       </c>
-      <c r="H66" s="11">
-        <v>0</v>
-      </c>
-      <c r="I66" s="11">
+      <c r="H66" s="10">
+        <v>0</v>
+      </c>
+      <c r="I66" s="10">
         <v>11836</v>
       </c>
-      <c r="J66" s="11">
+      <c r="J66" s="10">
         <v>2130</v>
       </c>
-      <c r="K66" s="11">
+      <c r="K66" s="10">
         <v>618199</v>
       </c>
-      <c r="L66" s="11">
+      <c r="L66" s="10">
         <v>1471834</v>
       </c>
     </row>
     <row r="67" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B67" s="11">
+      <c r="B67" s="10">
         <v>85000</v>
       </c>
-      <c r="C67" s="11">
-        <v>0</v>
-      </c>
-      <c r="D67" s="11">
-        <v>0</v>
-      </c>
-      <c r="E67" s="11">
+      <c r="C67" s="10">
+        <v>0</v>
+      </c>
+      <c r="D67" s="10">
+        <v>0</v>
+      </c>
+      <c r="E67" s="10">
         <v>42028</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F67" s="10">
         <v>4519</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G67" s="10">
         <v>4421</v>
       </c>
-      <c r="H67" s="11">
-        <v>0</v>
-      </c>
-      <c r="I67" s="11">
-        <v>0</v>
-      </c>
-      <c r="J67" s="11">
+      <c r="H67" s="10">
+        <v>0</v>
+      </c>
+      <c r="I67" s="10">
+        <v>0</v>
+      </c>
+      <c r="J67" s="10">
         <v>11153</v>
       </c>
-      <c r="K67" s="11">
+      <c r="K67" s="10">
         <v>142699</v>
       </c>
-      <c r="L67" s="11">
+      <c r="L67" s="10">
         <v>1389214</v>
       </c>
     </row>
     <row r="68" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B68" s="11">
+      <c r="B68" s="10">
         <v>200445</v>
       </c>
-      <c r="C68" s="11">
-        <v>0</v>
-      </c>
-      <c r="D68" s="11">
+      <c r="C68" s="10">
+        <v>0</v>
+      </c>
+      <c r="D68" s="10">
         <v>13</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E68" s="10">
         <v>37360</v>
       </c>
-      <c r="F68" s="11">
-        <v>0</v>
-      </c>
-      <c r="G68" s="11">
-        <v>0</v>
-      </c>
-      <c r="H68" s="11">
-        <v>0</v>
-      </c>
-      <c r="I68" s="11">
+      <c r="F68" s="10">
+        <v>0</v>
+      </c>
+      <c r="G68" s="10">
+        <v>0</v>
+      </c>
+      <c r="H68" s="10">
+        <v>0</v>
+      </c>
+      <c r="I68" s="10">
         <v>39371</v>
       </c>
-      <c r="J68" s="11">
+      <c r="J68" s="10">
         <v>7726</v>
       </c>
-      <c r="K68" s="11">
+      <c r="K68" s="10">
         <v>284915</v>
       </c>
-      <c r="L68" s="11">
+      <c r="L68" s="10">
         <v>1379893</v>
       </c>
     </row>
     <row r="69" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B69" s="11">
+      <c r="B69" s="10">
         <v>60180</v>
       </c>
-      <c r="C69" s="11">
-        <v>0</v>
-      </c>
-      <c r="D69" s="11">
-        <v>0</v>
-      </c>
-      <c r="E69" s="11">
+      <c r="C69" s="10">
+        <v>0</v>
+      </c>
+      <c r="D69" s="10">
+        <v>0</v>
+      </c>
+      <c r="E69" s="10">
         <v>347</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F69" s="10">
         <v>24685</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G69" s="10">
         <v>24685</v>
       </c>
-      <c r="H69" s="11">
-        <v>0</v>
-      </c>
-      <c r="I69" s="11">
+      <c r="H69" s="10">
+        <v>0</v>
+      </c>
+      <c r="I69" s="10">
         <v>2376</v>
       </c>
-      <c r="J69" s="11">
+      <c r="J69" s="10">
         <v>287</v>
       </c>
-      <c r="K69" s="11">
+      <c r="K69" s="10">
         <v>87766</v>
       </c>
-      <c r="L69" s="11">
+      <c r="L69" s="10">
         <v>1310776</v>
       </c>
     </row>
     <row r="70" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B70" s="11">
+      <c r="B70" s="10">
         <v>307350</v>
       </c>
-      <c r="C70" s="11">
-        <v>0</v>
-      </c>
-      <c r="D70" s="11">
-        <v>0</v>
-      </c>
-      <c r="E70" s="11">
+      <c r="C70" s="10">
+        <v>0</v>
+      </c>
+      <c r="D70" s="10">
+        <v>0</v>
+      </c>
+      <c r="E70" s="10">
         <v>1015</v>
       </c>
-      <c r="F70" s="11">
-        <v>0</v>
-      </c>
-      <c r="G70" s="11">
-        <v>0</v>
-      </c>
-      <c r="H70" s="11">
-        <v>0</v>
-      </c>
-      <c r="I70" s="11">
+      <c r="F70" s="10">
+        <v>0</v>
+      </c>
+      <c r="G70" s="10">
+        <v>0</v>
+      </c>
+      <c r="H70" s="10">
+        <v>0</v>
+      </c>
+      <c r="I70" s="10">
         <v>22060</v>
       </c>
-      <c r="J70" s="11">
+      <c r="J70" s="10">
         <v>15942</v>
       </c>
-      <c r="K70" s="11">
+      <c r="K70" s="10">
         <v>349206</v>
       </c>
-      <c r="L70" s="11">
+      <c r="L70" s="10">
         <v>1304132</v>
       </c>
     </row>
     <row r="71" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B71" s="11">
+      <c r="B71" s="10">
         <v>96941</v>
       </c>
-      <c r="C71" s="11">
-        <v>0</v>
-      </c>
-      <c r="D71" s="11">
-        <v>0</v>
-      </c>
-      <c r="E71" s="11">
+      <c r="C71" s="10">
+        <v>0</v>
+      </c>
+      <c r="D71" s="10">
+        <v>0</v>
+      </c>
+      <c r="E71" s="10">
         <v>1671</v>
       </c>
-      <c r="F71" s="11">
-        <v>0</v>
-      </c>
-      <c r="G71" s="11">
-        <v>0</v>
-      </c>
-      <c r="H71" s="11">
-        <v>0</v>
-      </c>
-      <c r="I71" s="11">
+      <c r="F71" s="10">
+        <v>0</v>
+      </c>
+      <c r="G71" s="10">
+        <v>0</v>
+      </c>
+      <c r="H71" s="10">
+        <v>0</v>
+      </c>
+      <c r="I71" s="10">
         <v>2688</v>
       </c>
-      <c r="J71" s="11">
+      <c r="J71" s="10">
         <v>4079</v>
       </c>
-      <c r="K71" s="11">
+      <c r="K71" s="10">
         <v>106122</v>
       </c>
-      <c r="L71" s="11">
+      <c r="L71" s="10">
         <v>1221595</v>
       </c>
     </row>
     <row r="72" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B72" s="11">
+      <c r="B72" s="10">
         <v>380567</v>
       </c>
-      <c r="C72" s="11">
-        <v>0</v>
-      </c>
-      <c r="D72" s="11">
-        <v>0</v>
-      </c>
-      <c r="E72" s="11">
+      <c r="C72" s="10">
+        <v>0</v>
+      </c>
+      <c r="D72" s="10">
+        <v>0</v>
+      </c>
+      <c r="E72" s="10">
         <v>391</v>
       </c>
-      <c r="F72" s="11">
-        <v>0</v>
-      </c>
-      <c r="G72" s="11">
-        <v>0</v>
-      </c>
-      <c r="H72" s="11">
-        <v>0</v>
-      </c>
-      <c r="I72" s="11">
+      <c r="F72" s="10">
+        <v>0</v>
+      </c>
+      <c r="G72" s="10">
+        <v>0</v>
+      </c>
+      <c r="H72" s="10">
+        <v>0</v>
+      </c>
+      <c r="I72" s="10">
         <v>-19041</v>
       </c>
-      <c r="J72" s="11">
+      <c r="J72" s="10">
         <v>771</v>
       </c>
-      <c r="K72" s="11">
+      <c r="K72" s="10">
         <v>362688</v>
       </c>
-      <c r="L72" s="11">
+      <c r="L72" s="10">
         <v>1216669</v>
       </c>
     </row>
     <row r="73" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B73" s="11">
+      <c r="B73" s="10">
         <v>87406</v>
       </c>
-      <c r="C73" s="11">
-        <v>0</v>
-      </c>
-      <c r="D73" s="11">
-        <v>0</v>
-      </c>
-      <c r="E73" s="11">
+      <c r="C73" s="10">
+        <v>0</v>
+      </c>
+      <c r="D73" s="10">
+        <v>0</v>
+      </c>
+      <c r="E73" s="10">
         <v>20345</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F73" s="10">
         <v>23218</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G73" s="10">
         <v>23218</v>
       </c>
-      <c r="H73" s="11">
-        <v>0</v>
-      </c>
-      <c r="I73" s="11">
-        <v>0</v>
-      </c>
-      <c r="J73" s="11">
+      <c r="H73" s="10">
+        <v>0</v>
+      </c>
+      <c r="I73" s="10">
+        <v>0</v>
+      </c>
+      <c r="J73" s="10">
         <v>401</v>
       </c>
-      <c r="K73" s="11">
+      <c r="K73" s="10">
         <v>121540</v>
       </c>
-      <c r="L73" s="11">
+      <c r="L73" s="10">
         <v>1204431</v>
       </c>
     </row>
     <row r="74" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B74" s="11">
+      <c r="B74" s="10">
         <v>265000</v>
       </c>
-      <c r="C74" s="11">
-        <v>0</v>
-      </c>
-      <c r="D74" s="11">
-        <v>0</v>
-      </c>
-      <c r="E74" s="11">
+      <c r="C74" s="10">
+        <v>0</v>
+      </c>
+      <c r="D74" s="10">
+        <v>0</v>
+      </c>
+      <c r="E74" s="10">
         <v>13154</v>
       </c>
-      <c r="F74" s="11">
-        <v>0</v>
-      </c>
-      <c r="G74" s="11">
-        <v>0</v>
-      </c>
-      <c r="H74" s="11">
-        <v>0</v>
-      </c>
-      <c r="I74" s="11">
+      <c r="F74" s="10">
+        <v>0</v>
+      </c>
+      <c r="G74" s="10">
+        <v>0</v>
+      </c>
+      <c r="H74" s="10">
+        <v>0</v>
+      </c>
+      <c r="I74" s="10">
         <v>21358</v>
       </c>
-      <c r="J74" s="11">
+      <c r="J74" s="10">
         <v>-20027</v>
       </c>
-      <c r="K74" s="11">
+      <c r="K74" s="10">
         <v>276999</v>
       </c>
-      <c r="L74" s="11">
+      <c r="L74" s="10">
         <v>1193585</v>
       </c>
     </row>
     <row r="75" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B75" s="11">
+      <c r="B75" s="10">
         <v>150000</v>
       </c>
-      <c r="C75" s="11">
-        <v>0</v>
-      </c>
-      <c r="D75" s="11">
-        <v>0</v>
-      </c>
-      <c r="E75" s="11">
+      <c r="C75" s="10">
+        <v>0</v>
+      </c>
+      <c r="D75" s="10">
+        <v>0</v>
+      </c>
+      <c r="E75" s="10">
         <v>30720</v>
       </c>
-      <c r="F75" s="11">
-        <v>0</v>
-      </c>
-      <c r="G75" s="11">
-        <v>0</v>
-      </c>
-      <c r="H75" s="11">
-        <v>0</v>
-      </c>
-      <c r="I75" s="11">
-        <v>0</v>
-      </c>
-      <c r="J75" s="11">
+      <c r="F75" s="10">
+        <v>0</v>
+      </c>
+      <c r="G75" s="10">
+        <v>0</v>
+      </c>
+      <c r="H75" s="10">
+        <v>0</v>
+      </c>
+      <c r="I75" s="10">
+        <v>0</v>
+      </c>
+      <c r="J75" s="10">
         <v>3296</v>
       </c>
-      <c r="K75" s="11">
+      <c r="K75" s="10">
         <v>184016</v>
       </c>
-      <c r="L75" s="11">
+      <c r="L75" s="10">
         <v>1179860</v>
       </c>
     </row>
     <row r="76" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B76" s="11">
+      <c r="B76" s="10">
         <v>219451</v>
       </c>
-      <c r="C76" s="11">
-        <v>0</v>
-      </c>
-      <c r="D76" s="11">
-        <v>0</v>
-      </c>
-      <c r="E76" s="11">
+      <c r="C76" s="10">
+        <v>0</v>
+      </c>
+      <c r="D76" s="10">
+        <v>0</v>
+      </c>
+      <c r="E76" s="10">
         <v>18247</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F76" s="10">
         <v>16853</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G76" s="10">
         <v>16853</v>
       </c>
-      <c r="H76" s="11">
-        <v>0</v>
-      </c>
-      <c r="I76" s="11">
+      <c r="H76" s="10">
+        <v>0</v>
+      </c>
+      <c r="I76" s="10">
         <v>8459</v>
       </c>
-      <c r="J76" s="11">
+      <c r="J76" s="10">
         <v>1502</v>
       </c>
-      <c r="K76" s="11">
+      <c r="K76" s="10">
         <v>262512</v>
       </c>
-      <c r="L76" s="11">
+      <c r="L76" s="10">
         <v>1175952</v>
       </c>
     </row>
     <row r="77" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B77" s="11">
+      <c r="B77" s="10">
         <v>152000</v>
       </c>
-      <c r="C77" s="11">
-        <v>0</v>
-      </c>
-      <c r="D77" s="11">
+      <c r="C77" s="10">
+        <v>0</v>
+      </c>
+      <c r="D77" s="10">
         <v>393</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E77" s="10">
         <v>29540</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F77" s="10">
         <v>6258</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G77" s="10">
         <v>6258</v>
       </c>
-      <c r="H77" s="11">
-        <v>0</v>
-      </c>
-      <c r="I77" s="11">
+      <c r="H77" s="10">
+        <v>0</v>
+      </c>
+      <c r="I77" s="10">
         <v>166</v>
       </c>
-      <c r="J77" s="11">
+      <c r="J77" s="10">
         <v>830</v>
       </c>
-      <c r="K77" s="11">
+      <c r="K77" s="10">
         <v>189188</v>
       </c>
-      <c r="L77" s="11">
+      <c r="L77" s="10">
         <v>1084566</v>
       </c>
     </row>
     <row r="78" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B78" s="11">
+      <c r="B78" s="10">
         <v>70500</v>
       </c>
-      <c r="C78" s="11">
-        <v>0</v>
-      </c>
-      <c r="D78" s="11">
+      <c r="C78" s="10">
+        <v>0</v>
+      </c>
+      <c r="D78" s="10">
         <v>60</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E78" s="10">
         <v>55466</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F78" s="10">
         <v>76659</v>
       </c>
-      <c r="G78" s="11">
+      <c r="G78" s="10">
         <v>76659</v>
       </c>
-      <c r="H78" s="11">
-        <v>0</v>
-      </c>
-      <c r="I78" s="11">
-        <v>0</v>
-      </c>
-      <c r="J78" s="11">
+      <c r="H78" s="10">
+        <v>0</v>
+      </c>
+      <c r="I78" s="10">
+        <v>0</v>
+      </c>
+      <c r="J78" s="10">
         <v>9356</v>
       </c>
-      <c r="K78" s="11">
+      <c r="K78" s="10">
         <v>212042</v>
       </c>
-      <c r="L78" s="11">
+      <c r="L78" s="10">
         <v>1079253</v>
       </c>
     </row>
     <row r="79" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B79" s="11">
+      <c r="B79" s="10">
         <v>62700</v>
       </c>
-      <c r="C79" s="11">
-        <v>0</v>
-      </c>
-      <c r="D79" s="11">
+      <c r="C79" s="10">
+        <v>0</v>
+      </c>
+      <c r="D79" s="10">
         <v>14</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E79" s="10">
         <v>21827</v>
       </c>
-      <c r="F79" s="11">
-        <v>0</v>
-      </c>
-      <c r="G79" s="11">
-        <v>0</v>
-      </c>
-      <c r="H79" s="11">
-        <v>0</v>
-      </c>
-      <c r="I79" s="11">
-        <v>0</v>
-      </c>
-      <c r="J79" s="11">
+      <c r="F79" s="10">
+        <v>0</v>
+      </c>
+      <c r="G79" s="10">
+        <v>0</v>
+      </c>
+      <c r="H79" s="10">
+        <v>0</v>
+      </c>
+      <c r="I79" s="10">
+        <v>0</v>
+      </c>
+      <c r="J79" s="10">
         <v>990</v>
       </c>
-      <c r="K79" s="11">
+      <c r="K79" s="10">
         <v>85533</v>
       </c>
-      <c r="L79" s="11">
+      <c r="L79" s="10">
         <v>1071151</v>
       </c>
     </row>
     <row r="80" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B80" s="11">
+      <c r="B80" s="10">
         <v>160000</v>
       </c>
-      <c r="C80" s="11">
-        <v>0</v>
-      </c>
-      <c r="D80" s="11">
-        <v>0</v>
-      </c>
-      <c r="E80" s="11">
+      <c r="C80" s="10">
+        <v>0</v>
+      </c>
+      <c r="D80" s="10">
+        <v>0</v>
+      </c>
+      <c r="E80" s="10">
         <v>34246</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F80" s="10">
         <v>119057</v>
       </c>
-      <c r="G80" s="11">
+      <c r="G80" s="10">
         <v>119057</v>
       </c>
-      <c r="H80" s="11">
-        <v>0</v>
-      </c>
-      <c r="I80" s="11">
-        <v>0</v>
-      </c>
-      <c r="J80" s="11">
+      <c r="H80" s="10">
+        <v>0</v>
+      </c>
+      <c r="I80" s="10">
+        <v>0</v>
+      </c>
+      <c r="J80" s="10">
         <v>1271</v>
       </c>
-      <c r="K80" s="11">
+      <c r="K80" s="10">
         <v>314574</v>
       </c>
-      <c r="L80" s="11">
+      <c r="L80" s="10">
         <v>1070285</v>
       </c>
     </row>
     <row r="81" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B81" s="11">
+      <c r="B81" s="10">
         <v>95890</v>
       </c>
-      <c r="C81" s="11">
-        <v>0</v>
-      </c>
-      <c r="D81" s="11">
-        <v>0</v>
-      </c>
-      <c r="E81" s="11">
+      <c r="C81" s="10">
+        <v>0</v>
+      </c>
+      <c r="D81" s="10">
+        <v>0</v>
+      </c>
+      <c r="E81" s="10">
         <v>1117</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F81" s="10">
         <v>4530</v>
       </c>
-      <c r="G81" s="11">
+      <c r="G81" s="10">
         <v>4530</v>
       </c>
-      <c r="H81" s="11">
-        <v>0</v>
-      </c>
-      <c r="I81" s="11">
-        <v>0</v>
-      </c>
-      <c r="J81" s="11">
+      <c r="H81" s="10">
+        <v>0</v>
+      </c>
+      <c r="I81" s="10">
+        <v>0</v>
+      </c>
+      <c r="J81" s="10">
         <v>124</v>
       </c>
-      <c r="K81" s="11">
+      <c r="K81" s="10">
         <v>96077</v>
       </c>
-      <c r="L81" s="11">
+      <c r="L81" s="10">
         <v>1049887</v>
       </c>
     </row>
     <row r="82" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B82" s="11">
+      <c r="B82" s="10">
         <v>124980</v>
       </c>
-      <c r="C82" s="11">
-        <v>0</v>
-      </c>
-      <c r="D82" s="11">
+      <c r="C82" s="10">
+        <v>0</v>
+      </c>
+      <c r="D82" s="10">
         <v>1056</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E82" s="10">
         <v>18356</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F82" s="10">
         <v>57684</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G82" s="10">
         <v>57684</v>
       </c>
-      <c r="H82" s="11">
-        <v>0</v>
-      </c>
-      <c r="I82" s="11">
-        <v>0</v>
-      </c>
-      <c r="J82" s="11">
+      <c r="H82" s="10">
+        <v>0</v>
+      </c>
+      <c r="I82" s="10">
+        <v>0</v>
+      </c>
+      <c r="J82" s="10">
         <v>-52945</v>
       </c>
-      <c r="K82" s="11">
+      <c r="K82" s="10">
         <v>149131</v>
       </c>
-      <c r="L82" s="11">
+      <c r="L82" s="10">
         <v>1040456</v>
       </c>
     </row>
     <row r="83" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B83" s="11">
+      <c r="B83" s="10">
         <v>85050</v>
       </c>
-      <c r="C83" s="11">
-        <v>0</v>
-      </c>
-      <c r="D83" s="11">
+      <c r="C83" s="10">
+        <v>0</v>
+      </c>
+      <c r="D83" s="10">
         <v>44</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E83" s="10">
         <v>13001</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F83" s="10">
         <v>28574</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G83" s="10">
         <v>28574</v>
       </c>
-      <c r="H83" s="11">
-        <v>0</v>
-      </c>
-      <c r="I83" s="11">
+      <c r="H83" s="10">
+        <v>0</v>
+      </c>
+      <c r="I83" s="10">
         <v>360</v>
       </c>
-      <c r="J83" s="11">
+      <c r="J83" s="10">
         <v>422</v>
       </c>
-      <c r="K83" s="11">
+      <c r="K83" s="10">
         <v>127450</v>
       </c>
-      <c r="L83" s="11">
+      <c r="L83" s="10">
         <v>1026724</v>
       </c>
     </row>
     <row r="84" spans="1:12" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B84" s="11">
+      <c r="B84" s="10">
         <v>197526</v>
       </c>
-      <c r="C84" s="11">
-        <v>0</v>
-      </c>
-      <c r="D84" s="11">
+      <c r="C84" s="10">
+        <v>0</v>
+      </c>
+      <c r="D84" s="10">
         <v>7000</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E84" s="10">
         <v>15602</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F84" s="10">
         <v>1313</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G84" s="10">
         <v>1313</v>
       </c>
-      <c r="H84" s="11">
-        <v>0</v>
-      </c>
-      <c r="I84" s="11">
-        <v>0</v>
-      </c>
-      <c r="J84" s="11">
+      <c r="H84" s="10">
+        <v>0</v>
+      </c>
+      <c r="I84" s="10">
+        <v>0</v>
+      </c>
+      <c r="J84" s="10">
         <v>8119</v>
       </c>
-      <c r="K84" s="11">
+      <c r="K84" s="10">
         <v>229560</v>
       </c>
-      <c r="L84" s="11">
+      <c r="L84" s="10">
         <v>1026026</v>
       </c>
     </row>
     <row r="85" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B85" s="11">
+      <c r="B85" s="10">
         <v>113040</v>
       </c>
-      <c r="C85" s="11">
-        <v>0</v>
-      </c>
-      <c r="D85" s="11">
+      <c r="C85" s="10">
+        <v>0</v>
+      </c>
+      <c r="D85" s="10">
         <v>124</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E85" s="10">
         <v>40389</v>
       </c>
-      <c r="F85" s="11">
-        <v>0</v>
-      </c>
-      <c r="G85" s="11">
-        <v>0</v>
-      </c>
-      <c r="H85" s="11">
-        <v>0</v>
-      </c>
-      <c r="I85" s="11">
-        <v>0</v>
-      </c>
-      <c r="J85" s="11">
+      <c r="F85" s="10">
+        <v>0</v>
+      </c>
+      <c r="G85" s="10">
+        <v>0</v>
+      </c>
+      <c r="H85" s="10">
+        <v>0</v>
+      </c>
+      <c r="I85" s="10">
+        <v>0</v>
+      </c>
+      <c r="J85" s="10">
         <v>-46701</v>
       </c>
-      <c r="K85" s="11">
+      <c r="K85" s="10">
         <v>106854</v>
       </c>
-      <c r="L85" s="11">
+      <c r="L85" s="10">
         <v>955284</v>
       </c>
     </row>
     <row r="86" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B86" s="11">
+      <c r="B86" s="10">
         <v>125560</v>
       </c>
-      <c r="C86" s="11">
-        <v>0</v>
-      </c>
-      <c r="D86" s="11">
+      <c r="C86" s="10">
+        <v>0</v>
+      </c>
+      <c r="D86" s="10">
         <v>41</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E86" s="10">
         <v>12063</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F86" s="10">
         <v>3075</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G86" s="10">
         <v>3075</v>
       </c>
-      <c r="H86" s="11">
-        <v>0</v>
-      </c>
-      <c r="I86" s="11">
+      <c r="H86" s="10">
+        <v>0</v>
+      </c>
+      <c r="I86" s="10">
         <v>10298</v>
       </c>
-      <c r="J86" s="11">
+      <c r="J86" s="10">
         <v>27891</v>
       </c>
-      <c r="K86" s="11">
+      <c r="K86" s="10">
         <v>178929</v>
       </c>
-      <c r="L86" s="11">
+      <c r="L86" s="10">
         <v>946481</v>
       </c>
     </row>
     <row r="87" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="11">
+      <c r="B87" s="10">
         <v>119480</v>
       </c>
-      <c r="C87" s="11">
-        <v>0</v>
-      </c>
-      <c r="D87" s="11">
-        <v>0</v>
-      </c>
-      <c r="E87" s="11">
+      <c r="C87" s="10">
+        <v>0</v>
+      </c>
+      <c r="D87" s="10">
+        <v>0</v>
+      </c>
+      <c r="E87" s="10">
         <v>2351</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F87" s="10">
         <v>10565</v>
       </c>
-      <c r="G87" s="11">
+      <c r="G87" s="10">
         <v>10565</v>
       </c>
-      <c r="H87" s="11">
-        <v>0</v>
-      </c>
-      <c r="I87" s="11">
+      <c r="H87" s="10">
+        <v>0</v>
+      </c>
+      <c r="I87" s="10">
         <v>573</v>
       </c>
-      <c r="J87" s="11">
+      <c r="J87" s="10">
         <v>-18552</v>
       </c>
-      <c r="K87" s="11">
+      <c r="K87" s="10">
         <v>114417</v>
       </c>
-      <c r="L87" s="11">
+      <c r="L87" s="10">
         <v>946158</v>
       </c>
     </row>
     <row r="88" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="11">
+      <c r="B88" s="10">
         <v>91500</v>
       </c>
-      <c r="C88" s="11">
-        <v>0</v>
-      </c>
-      <c r="D88" s="11">
-        <v>0</v>
-      </c>
-      <c r="E88" s="11">
+      <c r="C88" s="10">
+        <v>0</v>
+      </c>
+      <c r="D88" s="10">
+        <v>0</v>
+      </c>
+      <c r="E88" s="10">
         <v>8915</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F88" s="10">
         <v>5180</v>
       </c>
-      <c r="G88" s="11">
+      <c r="G88" s="10">
         <v>5180</v>
       </c>
-      <c r="H88" s="11">
-        <v>0</v>
-      </c>
-      <c r="I88" s="11">
+      <c r="H88" s="10">
+        <v>0</v>
+      </c>
+      <c r="I88" s="10">
         <v>4485</v>
       </c>
-      <c r="J88" s="11">
+      <c r="J88" s="10">
         <v>1209</v>
       </c>
-      <c r="K88" s="11">
+      <c r="K88" s="10">
         <v>111290</v>
       </c>
-      <c r="L88" s="11">
+      <c r="L88" s="10">
         <v>938659</v>
       </c>
     </row>
     <row r="89" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B89" s="11">
+      <c r="B89" s="10">
         <v>100000</v>
       </c>
-      <c r="C89" s="11">
-        <v>0</v>
-      </c>
-      <c r="D89" s="11">
-        <v>0</v>
-      </c>
-      <c r="E89" s="11">
+      <c r="C89" s="10">
+        <v>0</v>
+      </c>
+      <c r="D89" s="10">
+        <v>0</v>
+      </c>
+      <c r="E89" s="10">
         <v>57624</v>
       </c>
-      <c r="F89" s="11">
+      <c r="F89" s="10">
         <v>16131</v>
       </c>
-      <c r="G89" s="11">
+      <c r="G89" s="10">
         <v>16044</v>
       </c>
-      <c r="H89" s="11">
-        <v>0</v>
-      </c>
-      <c r="I89" s="11">
+      <c r="H89" s="10">
+        <v>0</v>
+      </c>
+      <c r="I89" s="10">
         <v>6292</v>
       </c>
-      <c r="J89" s="11">
+      <c r="J89" s="10">
         <v>-226878</v>
       </c>
-      <c r="K89" s="11">
+      <c r="K89" s="10">
         <v>-46826</v>
       </c>
-      <c r="L89" s="11">
+      <c r="L89" s="10">
         <v>931490</v>
       </c>
     </row>
     <row r="90" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="11">
+      <c r="B90" s="10">
         <v>165000</v>
       </c>
-      <c r="C90" s="11">
-        <v>0</v>
-      </c>
-      <c r="D90" s="11">
-        <v>0</v>
-      </c>
-      <c r="E90" s="11">
+      <c r="C90" s="10">
+        <v>0</v>
+      </c>
+      <c r="D90" s="10">
+        <v>0</v>
+      </c>
+      <c r="E90" s="10">
         <v>421</v>
       </c>
-      <c r="F90" s="11">
+      <c r="F90" s="10">
         <v>20614</v>
       </c>
-      <c r="G90" s="11">
+      <c r="G90" s="10">
         <v>20614</v>
       </c>
-      <c r="H90" s="11">
-        <v>0</v>
-      </c>
-      <c r="I90" s="11">
+      <c r="H90" s="10">
+        <v>0</v>
+      </c>
+      <c r="I90" s="10">
         <v>-5621</v>
       </c>
-      <c r="J90" s="11">
+      <c r="J90" s="10">
         <v>560</v>
       </c>
-      <c r="K90" s="11">
+      <c r="K90" s="10">
         <v>180975</v>
       </c>
-      <c r="L90" s="11">
+      <c r="L90" s="10">
         <v>930887</v>
       </c>
     </row>
     <row r="91" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="11">
+      <c r="B91" s="10">
         <v>230000</v>
       </c>
-      <c r="C91" s="11">
-        <v>0</v>
-      </c>
-      <c r="D91" s="11">
+      <c r="C91" s="10">
+        <v>0</v>
+      </c>
+      <c r="D91" s="10">
         <v>2295</v>
       </c>
-      <c r="E91" s="11">
+      <c r="E91" s="10">
         <v>13463</v>
       </c>
-      <c r="F91" s="11">
-        <v>0</v>
-      </c>
-      <c r="G91" s="11">
-        <v>0</v>
-      </c>
-      <c r="H91" s="11">
-        <v>0</v>
-      </c>
-      <c r="I91" s="11">
+      <c r="F91" s="10">
+        <v>0</v>
+      </c>
+      <c r="G91" s="10">
+        <v>0</v>
+      </c>
+      <c r="H91" s="10">
+        <v>0</v>
+      </c>
+      <c r="I91" s="10">
         <v>12295</v>
       </c>
-      <c r="J91" s="11">
+      <c r="J91" s="10">
         <v>1174</v>
       </c>
-      <c r="K91" s="11">
+      <c r="K91" s="10">
         <v>260092</v>
       </c>
-      <c r="L91" s="11">
+      <c r="L91" s="10">
         <v>896090</v>
       </c>
     </row>
     <row r="92" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="11">
+      <c r="B92" s="10">
         <v>143000</v>
       </c>
-      <c r="C92" s="11">
-        <v>0</v>
-      </c>
-      <c r="D92" s="11">
-        <v>0</v>
-      </c>
-      <c r="E92" s="11">
+      <c r="C92" s="10">
+        <v>0</v>
+      </c>
+      <c r="D92" s="10">
+        <v>0</v>
+      </c>
+      <c r="E92" s="10">
         <v>37410</v>
       </c>
-      <c r="F92" s="11">
-        <v>0</v>
-      </c>
-      <c r="G92" s="11">
-        <v>0</v>
-      </c>
-      <c r="H92" s="11">
-        <v>0</v>
-      </c>
-      <c r="I92" s="11">
-        <v>0</v>
-      </c>
-      <c r="J92" s="11">
+      <c r="F92" s="10">
+        <v>0</v>
+      </c>
+      <c r="G92" s="10">
+        <v>0</v>
+      </c>
+      <c r="H92" s="10">
+        <v>0</v>
+      </c>
+      <c r="I92" s="10">
+        <v>0</v>
+      </c>
+      <c r="J92" s="10">
         <v>15733</v>
       </c>
-      <c r="K92" s="11">
+      <c r="K92" s="10">
         <v>196144</v>
       </c>
-      <c r="L92" s="11">
+      <c r="L92" s="10">
         <v>879339</v>
       </c>
     </row>
     <row r="93" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="11">
+      <c r="B93" s="10">
         <v>58412</v>
       </c>
-      <c r="C93" s="11">
-        <v>0</v>
-      </c>
-      <c r="D93" s="11">
-        <v>0</v>
-      </c>
-      <c r="E93" s="11">
+      <c r="C93" s="10">
+        <v>0</v>
+      </c>
+      <c r="D93" s="10">
+        <v>0</v>
+      </c>
+      <c r="E93" s="10">
         <v>2584</v>
       </c>
-      <c r="F93" s="11">
+      <c r="F93" s="10">
         <v>51549</v>
       </c>
-      <c r="G93" s="11">
+      <c r="G93" s="10">
         <v>51549</v>
       </c>
-      <c r="H93" s="11">
-        <v>0</v>
-      </c>
-      <c r="I93" s="11">
+      <c r="H93" s="10">
+        <v>0</v>
+      </c>
+      <c r="I93" s="10">
         <v>2014</v>
       </c>
-      <c r="J93" s="11">
+      <c r="J93" s="10">
         <v>838</v>
       </c>
-      <c r="K93" s="11">
+      <c r="K93" s="10">
         <v>115396</v>
       </c>
-      <c r="L93" s="11">
+      <c r="L93" s="10">
         <v>875902</v>
       </c>
     </row>
     <row r="94" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B94" s="11">
+      <c r="B94" s="10">
         <v>134077</v>
       </c>
-      <c r="C94" s="11">
-        <v>0</v>
-      </c>
-      <c r="D94" s="11">
+      <c r="C94" s="10">
+        <v>0</v>
+      </c>
+      <c r="D94" s="10">
         <v>1049</v>
       </c>
-      <c r="E94" s="11">
+      <c r="E94" s="10">
         <v>6662</v>
       </c>
-      <c r="F94" s="11">
+      <c r="F94" s="10">
         <v>2275</v>
       </c>
-      <c r="G94" s="11">
+      <c r="G94" s="10">
         <v>2275</v>
       </c>
-      <c r="H94" s="11">
-        <v>0</v>
-      </c>
-      <c r="I94" s="11">
-        <v>0</v>
-      </c>
-      <c r="J94" s="11">
+      <c r="H94" s="10">
+        <v>0</v>
+      </c>
+      <c r="I94" s="10">
+        <v>0</v>
+      </c>
+      <c r="J94" s="10">
         <v>-6092</v>
       </c>
-      <c r="K94" s="11">
+      <c r="K94" s="10">
         <v>137972</v>
       </c>
-      <c r="L94" s="11">
+      <c r="L94" s="10">
         <v>864583</v>
       </c>
     </row>
     <row r="95" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B95" s="11">
+      <c r="B95" s="10">
         <v>297000</v>
       </c>
-      <c r="C95" s="11">
-        <v>0</v>
-      </c>
-      <c r="D95" s="11">
-        <v>0</v>
-      </c>
-      <c r="E95" s="11">
+      <c r="C95" s="10">
+        <v>0</v>
+      </c>
+      <c r="D95" s="10">
+        <v>0</v>
+      </c>
+      <c r="E95" s="10">
         <v>416</v>
       </c>
-      <c r="F95" s="11">
-        <v>0</v>
-      </c>
-      <c r="G95" s="11">
-        <v>0</v>
-      </c>
-      <c r="H95" s="11">
-        <v>0</v>
-      </c>
-      <c r="I95" s="11">
+      <c r="F95" s="10">
+        <v>0</v>
+      </c>
+      <c r="G95" s="10">
+        <v>0</v>
+      </c>
+      <c r="H95" s="10">
+        <v>0</v>
+      </c>
+      <c r="I95" s="10">
         <v>416</v>
       </c>
-      <c r="J95" s="11">
+      <c r="J95" s="10">
         <v>2047</v>
       </c>
-      <c r="K95" s="11">
+      <c r="K95" s="10">
         <v>299905</v>
       </c>
-      <c r="L95" s="11">
+      <c r="L95" s="10">
         <v>852245</v>
       </c>
     </row>
     <row r="96" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="11">
+      <c r="B96" s="10">
         <v>201400</v>
       </c>
-      <c r="C96" s="11">
-        <v>0</v>
-      </c>
-      <c r="D96" s="11">
-        <v>0</v>
-      </c>
-      <c r="E96" s="11">
+      <c r="C96" s="10">
+        <v>0</v>
+      </c>
+      <c r="D96" s="10">
+        <v>0</v>
+      </c>
+      <c r="E96" s="10">
         <v>1580</v>
       </c>
-      <c r="F96" s="11">
-        <v>0</v>
-      </c>
-      <c r="G96" s="11">
-        <v>0</v>
-      </c>
-      <c r="H96" s="11">
-        <v>0</v>
-      </c>
-      <c r="I96" s="11">
+      <c r="F96" s="10">
+        <v>0</v>
+      </c>
+      <c r="G96" s="10">
+        <v>0</v>
+      </c>
+      <c r="H96" s="10">
+        <v>0</v>
+      </c>
+      <c r="I96" s="10">
         <v>8027</v>
       </c>
-      <c r="J96" s="11">
+      <c r="J96" s="10">
         <v>1406</v>
       </c>
-      <c r="K96" s="11">
+      <c r="K96" s="10">
         <v>212414</v>
       </c>
-      <c r="L96" s="11">
+      <c r="L96" s="10">
         <v>821055</v>
       </c>
     </row>
     <row r="97" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B97" s="11">
+      <c r="B97" s="10">
         <v>200000</v>
       </c>
-      <c r="C97" s="11">
-        <v>0</v>
-      </c>
-      <c r="D97" s="11">
+      <c r="C97" s="10">
+        <v>0</v>
+      </c>
+      <c r="D97" s="10">
         <v>17924</v>
       </c>
-      <c r="E97" s="11">
+      <c r="E97" s="10">
         <v>51788</v>
       </c>
-      <c r="F97" s="11">
-        <v>0</v>
-      </c>
-      <c r="G97" s="11">
-        <v>0</v>
-      </c>
-      <c r="H97" s="11">
-        <v>0</v>
-      </c>
-      <c r="I97" s="11">
+      <c r="F97" s="10">
+        <v>0</v>
+      </c>
+      <c r="G97" s="10">
+        <v>0</v>
+      </c>
+      <c r="H97" s="10">
+        <v>0</v>
+      </c>
+      <c r="I97" s="10">
         <v>3</v>
       </c>
-      <c r="J97" s="11">
+      <c r="J97" s="10">
         <v>-41348</v>
       </c>
-      <c r="K97" s="11">
+      <c r="K97" s="10">
         <v>228367</v>
       </c>
-      <c r="L97" s="11">
+      <c r="L97" s="10">
         <v>800621</v>
       </c>
     </row>
     <row r="98" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B98" s="11">
+      <c r="B98" s="10">
         <v>936</v>
       </c>
-      <c r="C98" s="11">
-        <v>0</v>
-      </c>
-      <c r="D98" s="11">
-        <v>0</v>
-      </c>
-      <c r="E98" s="11">
+      <c r="C98" s="10">
+        <v>0</v>
+      </c>
+      <c r="D98" s="10">
+        <v>0</v>
+      </c>
+      <c r="E98" s="10">
         <v>136911</v>
       </c>
-      <c r="F98" s="11">
+      <c r="F98" s="10">
         <v>17534</v>
       </c>
-      <c r="G98" s="11">
-        <v>0</v>
-      </c>
-      <c r="H98" s="11">
-        <v>0</v>
-      </c>
-      <c r="I98" s="11">
+      <c r="G98" s="10">
+        <v>0</v>
+      </c>
+      <c r="H98" s="10">
+        <v>0</v>
+      </c>
+      <c r="I98" s="10">
         <v>23473</v>
       </c>
-      <c r="J98" s="11">
+      <c r="J98" s="10">
         <v>-119275</v>
       </c>
-      <c r="K98" s="11">
+      <c r="K98" s="10">
         <v>59579</v>
       </c>
-      <c r="L98" s="11">
+      <c r="L98" s="10">
         <v>794335</v>
       </c>
     </row>
     <row r="99" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="11">
+      <c r="B99" s="10">
         <v>155227</v>
       </c>
-      <c r="C99" s="11">
-        <v>0</v>
-      </c>
-      <c r="D99" s="11">
-        <v>0</v>
-      </c>
-      <c r="E99" s="11">
+      <c r="C99" s="10">
+        <v>0</v>
+      </c>
+      <c r="D99" s="10">
+        <v>0</v>
+      </c>
+      <c r="E99" s="10">
         <v>16698</v>
       </c>
-      <c r="F99" s="11">
-        <v>0</v>
-      </c>
-      <c r="G99" s="11">
-        <v>0</v>
-      </c>
-      <c r="H99" s="11">
-        <v>0</v>
-      </c>
-      <c r="I99" s="11">
-        <v>0</v>
-      </c>
-      <c r="J99" s="11">
+      <c r="F99" s="10">
+        <v>0</v>
+      </c>
+      <c r="G99" s="10">
+        <v>0</v>
+      </c>
+      <c r="H99" s="10">
+        <v>0</v>
+      </c>
+      <c r="I99" s="10">
+        <v>0</v>
+      </c>
+      <c r="J99" s="10">
         <v>-4082</v>
       </c>
-      <c r="K99" s="11">
+      <c r="K99" s="10">
         <v>167843</v>
       </c>
-      <c r="L99" s="11">
+      <c r="L99" s="10">
         <v>773955</v>
       </c>
     </row>
     <row r="100" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B100" s="11">
+      <c r="A100" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="10">
         <v>33200</v>
       </c>
-      <c r="C100" s="11">
-        <v>0</v>
-      </c>
-      <c r="D100" s="11">
+      <c r="C100" s="10">
+        <v>0</v>
+      </c>
+      <c r="D100" s="10">
         <v>5</v>
       </c>
-      <c r="E100" s="11">
+      <c r="E100" s="10">
         <v>60093</v>
       </c>
-      <c r="F100" s="11">
+      <c r="F100" s="10">
         <v>6997</v>
       </c>
-      <c r="G100" s="11">
+      <c r="G100" s="10">
         <v>6997</v>
       </c>
-      <c r="H100" s="11">
-        <v>0</v>
-      </c>
-      <c r="I100" s="11">
+      <c r="H100" s="10">
+        <v>0</v>
+      </c>
+      <c r="I100" s="10">
         <v>38038</v>
       </c>
-      <c r="J100" s="11">
+      <c r="J100" s="10">
         <v>5405</v>
       </c>
-      <c r="K100" s="11">
+      <c r="K100" s="10">
         <v>143492</v>
       </c>
-      <c r="L100" s="11">
+      <c r="L100" s="10">
         <v>761216</v>
       </c>
     </row>
@@ -4592,16 +4592,16 @@
       <c r="A103" s="3"/>
     </row>
     <row r="104" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
+      <c r="A104" s="4"/>
     </row>
     <row r="105" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
     </row>
     <row r="106" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="5"/>
+      <c r="A106" s="3"/>
     </row>
     <row r="107" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
+      <c r="A107" s="5"/>
     </row>
     <row r="108" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
@@ -4634,13 +4634,13 @@
       <c r="A117" s="3"/>
     </row>
     <row r="118" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
+      <c r="A118" s="5"/>
     </row>
     <row r="119" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
     </row>
     <row r="120" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="5"/>
+      <c r="A120" s="3"/>
     </row>
     <row r="121" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
@@ -4658,9 +4658,9 @@
       <c r="A125" s="3"/>
     </row>
     <row r="126" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-    </row>
-    <row r="127" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="5"/>
+    </row>
+    <row r="127" spans="1:1" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
     </row>
     <row r="128" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4669,161 +4669,8 @@
     <row r="129" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
     </row>
-    <row r="130" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-    </row>
-    <row r="131" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-    </row>
-    <row r="132" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-    </row>
-    <row r="133" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-    </row>
-    <row r="134" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-    </row>
-    <row r="135" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-    </row>
-    <row r="136" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
-    </row>
-    <row r="137" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-    </row>
-    <row r="138" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-    </row>
-    <row r="139" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-    </row>
-    <row r="140" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-    </row>
-    <row r="141" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-    </row>
-    <row r="142" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-    </row>
-    <row r="143" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="5"/>
-    </row>
-    <row r="144" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-    </row>
-    <row r="145" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-    </row>
-    <row r="146" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-    </row>
-    <row r="147" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="5"/>
-    </row>
-    <row r="148" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-    </row>
-    <row r="149" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-    </row>
-    <row r="150" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
-    </row>
-    <row r="151" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
-    </row>
-    <row r="152" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-    </row>
-    <row r="153" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-    </row>
-    <row r="154" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-    </row>
-    <row r="155" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="4"/>
-    </row>
-    <row r="156" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
-    </row>
-    <row r="157" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
-    </row>
-    <row r="158" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="5"/>
-    </row>
-    <row r="159" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
-    </row>
-    <row r="160" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
-    </row>
-    <row r="161" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-    </row>
-    <row r="162" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="3"/>
-    </row>
-    <row r="163" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
-    </row>
-    <row r="164" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-    </row>
-    <row r="165" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="3"/>
-    </row>
-    <row r="166" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="3"/>
-    </row>
-    <row r="167" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="3"/>
-    </row>
-    <row r="168" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="3"/>
-    </row>
-    <row r="169" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="5"/>
-    </row>
-    <row r="170" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="3"/>
-    </row>
-    <row r="171" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="3"/>
-    </row>
-    <row r="172" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="3"/>
-    </row>
-    <row r="173" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="3"/>
-    </row>
-    <row r="174" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="3"/>
-    </row>
-    <row r="175" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="3"/>
-    </row>
-    <row r="176" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="3"/>
-    </row>
-    <row r="177" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="5"/>
-    </row>
-    <row r="178" spans="1:1" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="3"/>
-    </row>
-    <row r="179" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="4"/>
-    </row>
-    <row r="180" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="3"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" s="7"/>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4847,14 +4694,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
